--- a/medicine/Autisme/Éric_Fombonne/Éric_Fombonne.xlsx
+++ b/medicine/Autisme/Éric_Fombonne/Éric_Fombonne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89ric_Fombonne</t>
+          <t>Éric_Fombonne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Éric Fombonne (né à Paris en 1954) est un psychiatre et épidémiologiste français. Il a exercé à Montréal, notamment à l'université McGill, dans l'étude de la dépression clinique[1],[2]. Il exerce désormais à l'OHSU de Portland[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Éric Fombonne (né à Paris en 1954) est un psychiatre et épidémiologiste français. Il a exercé à Montréal, notamment à l'université McGill, dans l'étude de la dépression clinique,. Il exerce désormais à l'OHSU de Portland.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89ric_Fombonne</t>
+          <t>Éric_Fombonne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Axes de recherche</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il a travaillé sur l'anorexie mentale et la boulimie au King's College de Londres, en Angleterre[4]. 
-En 2001, il a mené une méta-analyse des études épidémiologiques disponibles pour obtenir des preuves de la prévalence de l'autisme. Son examen a conclu que la prévalence de l'autisme est de 25/10 000 et le taux de l'ensemble des troubles envahissants du développement autour de 90/10 000. Cependant, il a également noté plusieurs études récentes indiquant un taux beaucoup plus élevé que la prévalence actuelle, avec une plus grande inclusion. Il attribue l'augmentation apparente des cas d'autisme à une meilleure reconnaissance de l'autisme, et fait valoir que la croyance en une épidémie d'autisme est actuellement sans fondement, sauf preuve du contraire[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a travaillé sur l'anorexie mentale et la boulimie au King's College de Londres, en Angleterre. 
+En 2001, il a mené une méta-analyse des études épidémiologiques disponibles pour obtenir des preuves de la prévalence de l'autisme. Son examen a conclu que la prévalence de l'autisme est de 25/10 000 et le taux de l'ensemble des troubles envahissants du développement autour de 90/10 000. Cependant, il a également noté plusieurs études récentes indiquant un taux beaucoup plus élevé que la prévalence actuelle, avec une plus grande inclusion. Il attribue l'augmentation apparente des cas d'autisme à une meilleure reconnaissance de l'autisme, et fait valoir que la croyance en une épidémie d'autisme est actuellement sans fondement, sauf preuve du contraire.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89ric_Fombonne</t>
+          <t>Éric_Fombonne</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Travaux publiés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Fombonne a écrit plus de 260 rapports scientifiques dans des revues évaluées par les pairs, et 40 chapitres dans des livres. Il a été rédacteur en chef adjoint du Journal of Autism and Developmental Disorders [« Journal de l'Autisme et des Troubles du Développement »], de 1994 à 2003[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Fombonne a écrit plus de 260 rapports scientifiques dans des revues évaluées par les pairs, et 40 chapitres dans des livres. Il a été rédacteur en chef adjoint du Journal of Autism and Developmental Disorders [« Journal de l'Autisme et des Troubles du Développement »], de 1994 à 2003.
 (en) S. Chakrabarti et E. Fombonne, « Pervasive developmental disorders in preschool children », JAMA, vol. 285, no 24,‎ 27 juin 2001, p. 3093–3099 (ISSN 0098-7484, PMID 11427137, lire en ligne, consulté le 4 décembre 2016)
 (en) Suniti Chakrabarti et Eric Fombonne, « Pervasive developmental disorders in preschool children: confirmation of high prevalence », The American Journal of Psychiatry, vol. 162, no 6,‎ 1er juin 2005, p. 1133–1141 (ISSN 0002-953X, PMID 15930062, DOI 10.1176/appi.ajp.162.6.1133, lire en ligne, consulté le 4 décembre 2016)</t>
         </is>
